--- a/thermal model/Dataset_experimentation.xlsx
+++ b/thermal model/Dataset_experimentation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kjaer\OneDrive\Escritorio\CLASS_PROJECTS\CITYU\PROJECT\PROGRAMMING\Algorithms\Temperature-estimation-battery-pack\thermal model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5ebb9d9cacfa3b77/Escritorio/CLASS_PROJECTS/CITYU/PROJECT/PROGRAMMING/Algorithms/Temperature-estimation-battery-pack/thermal model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B4DBBC-9C1B-4F64-9A1D-9F8BEA5802D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="224" documentId="13_ncr:1_{10B4DBBC-9C1B-4F64-9A1D-9F8BEA5802D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBD0D4E7-B9F9-4EE6-9417-CE98825E5CFC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7315FFA5-0994-4793-9407-AF4C3963813E}"/>
   </bookViews>
@@ -139,6 +139,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -458,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D7C7D8F-2925-4F5F-9273-6C3212E78131}">
-  <dimension ref="B1:P5"/>
+  <dimension ref="B1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -520,190 +524,660 @@
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B2">
-        <v>25</v>
+        <v>21.3</v>
       </c>
       <c r="C2">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D2">
-        <v>27</v>
+        <v>21.3</v>
       </c>
       <c r="E2">
-        <v>28</v>
+        <v>21.5</v>
       </c>
       <c r="F2">
-        <v>29</v>
+        <v>21.4</v>
       </c>
       <c r="G2">
-        <v>30</v>
+        <v>21.3</v>
       </c>
       <c r="H2">
-        <v>31</v>
+        <v>21.3</v>
       </c>
       <c r="I2">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="J2">
-        <v>3.2</v>
+        <v>3.3279999999999998</v>
       </c>
       <c r="K2">
-        <v>3.1</v>
+        <v>3.2559999999999998</v>
       </c>
       <c r="L2">
-        <v>3.2</v>
+        <v>3.2850000000000001</v>
       </c>
       <c r="M2">
-        <v>3.1</v>
+        <v>3.3650000000000002</v>
       </c>
       <c r="N2">
-        <v>3.2</v>
+        <v>3.3660000000000001</v>
       </c>
       <c r="O2">
-        <v>3.1</v>
+        <v>3.2989999999999999</v>
       </c>
       <c r="P2">
-        <v>27</v>
+        <v>23.85</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B3">
-        <v>25.1</v>
+        <v>22.6</v>
       </c>
       <c r="C3">
-        <v>26.1</v>
+        <v>22.8</v>
       </c>
       <c r="D3">
-        <v>27.1</v>
+        <v>23.4</v>
       </c>
       <c r="E3">
-        <v>28.1</v>
+        <v>22.7</v>
       </c>
       <c r="F3">
-        <v>29.1</v>
+        <v>23</v>
       </c>
       <c r="G3">
-        <v>30.1</v>
+        <v>22.8</v>
       </c>
       <c r="H3">
-        <v>31.1</v>
+        <v>23.5</v>
       </c>
       <c r="I3">
-        <v>3.2</v>
+        <v>3.4279999999999999</v>
       </c>
       <c r="J3">
-        <v>3.3</v>
+        <v>3.456</v>
       </c>
       <c r="K3">
-        <v>3.2</v>
+        <v>3.4239999999999999</v>
       </c>
       <c r="L3">
-        <v>3.3</v>
+        <v>3.4079999999999999</v>
       </c>
       <c r="M3">
-        <v>3.2</v>
+        <v>3.4279999999999999</v>
       </c>
       <c r="N3">
-        <v>3.3</v>
+        <v>3.4249999999999998</v>
       </c>
       <c r="O3">
-        <v>3.2</v>
+        <v>3.407</v>
       </c>
       <c r="P3">
-        <v>27.2</v>
+        <v>23.94</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4">
-        <v>25.2</v>
+        <v>22.8</v>
       </c>
       <c r="C4">
-        <v>26.2</v>
+        <v>23.2</v>
       </c>
       <c r="D4">
-        <v>27.2</v>
+        <v>23.2</v>
       </c>
       <c r="E4">
-        <v>28.2</v>
+        <v>22.9</v>
       </c>
       <c r="F4">
-        <v>29.2</v>
+        <v>23.1</v>
       </c>
       <c r="G4">
-        <v>30.2</v>
+        <v>23.1</v>
       </c>
       <c r="H4">
-        <v>31.2</v>
+        <v>24</v>
       </c>
       <c r="I4">
-        <v>3.3</v>
+        <v>3.5880000000000001</v>
       </c>
       <c r="J4">
-        <v>3.4</v>
+        <v>3.5950000000000002</v>
       </c>
       <c r="K4">
-        <v>3.3</v>
+        <v>3.6309999999999998</v>
       </c>
       <c r="L4">
-        <v>3.4</v>
+        <v>3.5640000000000001</v>
       </c>
       <c r="M4">
-        <v>3.3</v>
+        <v>3.5720000000000001</v>
       </c>
       <c r="N4">
-        <v>3.4</v>
+        <v>3.5649999999999999</v>
       </c>
       <c r="O4">
-        <v>3.3</v>
+        <v>3.5270000000000001</v>
       </c>
       <c r="P4">
-        <v>27.4</v>
+        <v>25.03</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5">
+        <v>23.3</v>
+      </c>
+      <c r="C5">
+        <v>24</v>
+      </c>
+      <c r="D5">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>23.7</v>
+      </c>
+      <c r="F5">
+        <v>23.9</v>
+      </c>
+      <c r="G5">
+        <v>23.9</v>
+      </c>
+      <c r="H5">
+        <v>25.4</v>
+      </c>
+      <c r="I5">
+        <v>3.617</v>
+      </c>
+      <c r="J5">
+        <v>3.6080000000000001</v>
+      </c>
+      <c r="K5">
+        <v>3.6429999999999998</v>
+      </c>
+      <c r="L5">
+        <v>3.5870000000000002</v>
+      </c>
+      <c r="M5">
+        <v>3.5920000000000001</v>
+      </c>
+      <c r="N5">
+        <v>3.589</v>
+      </c>
+      <c r="O5">
+        <v>3.556</v>
+      </c>
+      <c r="P5">
+        <v>25.24</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>24.2</v>
+      </c>
+      <c r="C6">
+        <v>24.8</v>
+      </c>
+      <c r="D6">
+        <v>24.7</v>
+      </c>
+      <c r="E6">
+        <v>24.7</v>
+      </c>
+      <c r="F6">
+        <v>24.6</v>
+      </c>
+      <c r="G6">
         <v>25.3</v>
       </c>
-      <c r="C5">
+      <c r="H6">
+        <v>26</v>
+      </c>
+      <c r="I6">
+        <v>3.6509999999999998</v>
+      </c>
+      <c r="J6">
+        <v>3.6509999999999998</v>
+      </c>
+      <c r="K6">
+        <v>3.669</v>
+      </c>
+      <c r="L6">
+        <v>3.6349999999999998</v>
+      </c>
+      <c r="M6">
+        <v>3.6440000000000001</v>
+      </c>
+      <c r="N6">
+        <v>3.6389999999999998</v>
+      </c>
+      <c r="O6">
+        <v>3.6269999999999998</v>
+      </c>
+      <c r="P6">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>25.6</v>
+      </c>
+      <c r="C7">
+        <v>25.9</v>
+      </c>
+      <c r="D7">
+        <v>26</v>
+      </c>
+      <c r="E7">
+        <v>25.8</v>
+      </c>
+      <c r="F7">
+        <v>25.8</v>
+      </c>
+      <c r="G7">
+        <v>25.9</v>
+      </c>
+      <c r="H7">
+        <v>26.6</v>
+      </c>
+      <c r="I7">
+        <v>3.6779999999999999</v>
+      </c>
+      <c r="J7">
+        <v>3.6840000000000002</v>
+      </c>
+      <c r="K7">
+        <v>3.714</v>
+      </c>
+      <c r="L7">
+        <v>3.6669999999999998</v>
+      </c>
+      <c r="M7">
+        <v>3.67</v>
+      </c>
+      <c r="N7">
+        <v>3.6709999999999998</v>
+      </c>
+      <c r="O7">
+        <v>3.6139999999999999</v>
+      </c>
+      <c r="P7">
+        <v>25.7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>25.4</v>
+      </c>
+      <c r="C8">
+        <v>25.7</v>
+      </c>
+      <c r="D8">
+        <v>25.8</v>
+      </c>
+      <c r="E8">
+        <v>25.8</v>
+      </c>
+      <c r="F8">
+        <v>25.2</v>
+      </c>
+      <c r="G8">
+        <v>25.4</v>
+      </c>
+      <c r="H8">
+        <v>25.6</v>
+      </c>
+      <c r="I8">
+        <v>3.6970000000000001</v>
+      </c>
+      <c r="J8">
+        <v>3.702</v>
+      </c>
+      <c r="K8">
+        <v>3.7440000000000002</v>
+      </c>
+      <c r="L8">
+        <v>3.6850000000000001</v>
+      </c>
+      <c r="M8">
+        <v>3.6859999999999999</v>
+      </c>
+      <c r="N8">
+        <v>3.6890000000000001</v>
+      </c>
+      <c r="O8">
+        <v>3.6160000000000001</v>
+      </c>
+      <c r="P8">
+        <v>25.86</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>26</v>
+      </c>
+      <c r="C9">
+        <v>26.1</v>
+      </c>
+      <c r="D9">
+        <v>26.1</v>
+      </c>
+      <c r="E9">
+        <v>26</v>
+      </c>
+      <c r="F9">
+        <v>25.6</v>
+      </c>
+      <c r="G9">
+        <v>25.6</v>
+      </c>
+      <c r="H9">
+        <v>25.7</v>
+      </c>
+      <c r="I9">
+        <v>3.7149999999999999</v>
+      </c>
+      <c r="J9">
+        <v>3.7149999999999999</v>
+      </c>
+      <c r="K9">
+        <v>3.7469999999999999</v>
+      </c>
+      <c r="L9">
+        <v>3.702</v>
+      </c>
+      <c r="M9">
+        <v>3.702</v>
+      </c>
+      <c r="N9">
+        <v>3.7</v>
+      </c>
+      <c r="O9">
+        <v>3.6469999999999998</v>
+      </c>
+      <c r="P9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>26.2</v>
+      </c>
+      <c r="C10">
+        <v>26.6</v>
+      </c>
+      <c r="D10">
+        <v>26.8</v>
+      </c>
+      <c r="E10">
+        <v>26.6</v>
+      </c>
+      <c r="F10">
+        <v>26</v>
+      </c>
+      <c r="G10">
+        <v>25.9</v>
+      </c>
+      <c r="H10">
+        <v>26</v>
+      </c>
+      <c r="I10">
+        <v>3.742</v>
+      </c>
+      <c r="J10">
+        <v>3.7280000000000002</v>
+      </c>
+      <c r="K10">
+        <v>3.7959999999999998</v>
+      </c>
+      <c r="L10">
+        <v>3.7160000000000002</v>
+      </c>
+      <c r="M10">
+        <v>3.714</v>
+      </c>
+      <c r="N10">
+        <v>3.7189999999999999</v>
+      </c>
+      <c r="O10">
+        <v>3.637</v>
+      </c>
+      <c r="P10">
+        <v>26.15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B11">
         <v>26.3</v>
       </c>
-      <c r="D5">
-        <v>27.3</v>
-      </c>
-      <c r="E5">
-        <v>28.3</v>
-      </c>
-      <c r="F5">
-        <v>29.3</v>
-      </c>
-      <c r="G5">
-        <v>30.3</v>
-      </c>
-      <c r="H5">
-        <v>31.3</v>
-      </c>
-      <c r="I5">
-        <v>3.4</v>
-      </c>
-      <c r="J5">
-        <v>3.5</v>
-      </c>
-      <c r="K5">
-        <v>3.4</v>
-      </c>
-      <c r="L5">
-        <v>3.5</v>
-      </c>
-      <c r="M5">
-        <v>3.4</v>
-      </c>
-      <c r="N5">
-        <v>3.5</v>
-      </c>
-      <c r="O5">
-        <v>3.4</v>
-      </c>
-      <c r="P5">
-        <v>27.6</v>
+      <c r="C11">
+        <v>26.4</v>
+      </c>
+      <c r="D11">
+        <v>26.4</v>
+      </c>
+      <c r="E11">
+        <v>26.5</v>
+      </c>
+      <c r="F11">
+        <v>26</v>
+      </c>
+      <c r="G11">
+        <v>26</v>
+      </c>
+      <c r="H11">
+        <v>26.3</v>
+      </c>
+      <c r="I11">
+        <v>3.754</v>
+      </c>
+      <c r="J11">
+        <v>3.7519999999999998</v>
+      </c>
+      <c r="K11">
+        <v>3.786</v>
+      </c>
+      <c r="L11">
+        <v>3.7389999999999999</v>
+      </c>
+      <c r="M11">
+        <v>3.738</v>
+      </c>
+      <c r="N11">
+        <v>3.7429999999999999</v>
+      </c>
+      <c r="O11">
+        <v>3.6869999999999998</v>
+      </c>
+      <c r="P11">
+        <v>26.3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>26.7</v>
+      </c>
+      <c r="C12">
+        <v>26.5</v>
+      </c>
+      <c r="D12">
+        <v>26.9</v>
+      </c>
+      <c r="E12">
+        <v>26.4</v>
+      </c>
+      <c r="F12">
+        <v>26.7</v>
+      </c>
+      <c r="G12">
+        <v>26.4</v>
+      </c>
+      <c r="H12">
+        <v>26.5</v>
+      </c>
+      <c r="I12">
+        <v>3.7909999999999999</v>
+      </c>
+      <c r="J12">
+        <v>3.786</v>
+      </c>
+      <c r="K12">
+        <v>3.8159999999999998</v>
+      </c>
+      <c r="L12">
+        <v>3.774</v>
+      </c>
+      <c r="M12">
+        <v>3.7690000000000001</v>
+      </c>
+      <c r="N12">
+        <v>3.7789999999999999</v>
+      </c>
+      <c r="O12">
+        <v>3.7120000000000002</v>
+      </c>
+      <c r="P12">
+        <v>26.51</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>27</v>
+      </c>
+      <c r="C13">
+        <v>27.2</v>
+      </c>
+      <c r="D13">
+        <v>27.1</v>
+      </c>
+      <c r="E13">
+        <v>27.1</v>
+      </c>
+      <c r="F13">
+        <v>26.4</v>
+      </c>
+      <c r="G13">
+        <v>26.4</v>
+      </c>
+      <c r="H13">
+        <v>26.3</v>
+      </c>
+      <c r="I13">
+        <v>3.84</v>
+      </c>
+      <c r="J13">
+        <v>3.8319999999999999</v>
+      </c>
+      <c r="K13">
+        <v>3.875</v>
+      </c>
+      <c r="L13">
+        <v>3.8220000000000001</v>
+      </c>
+      <c r="M13">
+        <v>3.8119999999999998</v>
+      </c>
+      <c r="N13">
+        <v>3.8290000000000002</v>
+      </c>
+      <c r="O13">
+        <v>3.762</v>
+      </c>
+      <c r="P13">
+        <v>26.86</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>26.7</v>
+      </c>
+      <c r="C14">
+        <v>26.5</v>
+      </c>
+      <c r="D14">
+        <v>26.4</v>
+      </c>
+      <c r="E14">
+        <v>26.5</v>
+      </c>
+      <c r="F14">
+        <v>26.4</v>
+      </c>
+      <c r="G14">
+        <v>26.2</v>
+      </c>
+      <c r="H14">
+        <v>26.1</v>
+      </c>
+      <c r="I14">
+        <v>3.9390000000000001</v>
+      </c>
+      <c r="J14">
+        <v>3.9340000000000002</v>
+      </c>
+      <c r="K14">
+        <v>3.956</v>
+      </c>
+      <c r="L14">
+        <v>3.9430000000000001</v>
+      </c>
+      <c r="M14">
+        <v>3.9180000000000001</v>
+      </c>
+      <c r="N14">
+        <v>3.944</v>
+      </c>
+      <c r="O14">
+        <v>3.8519999999999999</v>
+      </c>
+      <c r="P14">
+        <v>27.58</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>26.8</v>
+      </c>
+      <c r="C15">
+        <v>26.6</v>
+      </c>
+      <c r="D15">
+        <v>25.5</v>
+      </c>
+      <c r="E15">
+        <v>26</v>
+      </c>
+      <c r="F15">
+        <v>25.8</v>
+      </c>
+      <c r="G15">
+        <v>25.7</v>
+      </c>
+      <c r="H15">
+        <v>25.9</v>
+      </c>
+      <c r="I15">
+        <v>4.0750000000000002</v>
+      </c>
+      <c r="J15">
+        <v>4.0629999999999997</v>
+      </c>
+      <c r="K15">
+        <v>4.0890000000000004</v>
+      </c>
+      <c r="L15">
+        <v>4.0780000000000003</v>
+      </c>
+      <c r="M15">
+        <v>4.05</v>
+      </c>
+      <c r="N15">
+        <v>4.0819999999999999</v>
+      </c>
+      <c r="O15">
+        <v>3.9380000000000002</v>
+      </c>
+      <c r="P15">
+        <v>28.54</v>
       </c>
     </row>
   </sheetData>
